--- a/pronostico_demanda/excel_branches/branch0(1).xlsx
+++ b/pronostico_demanda/excel_branches/branch0(1).xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6545"/>
+  <dimension ref="A1:E6826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -111648,13 +111648,4790 @@
         <v>0</v>
       </c>
       <c r="C6545">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D6545">
-        <v>1162</v>
+        <v>1878</v>
       </c>
       <c r="E6545">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6546" spans="1:5">
+      <c r="A6546">
+        <v>6544</v>
+      </c>
+      <c r="B6546">
+        <v>0</v>
+      </c>
+      <c r="C6546">
+        <v>221</v>
+      </c>
+      <c r="D6546">
+        <v>1878</v>
+      </c>
+      <c r="E6546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6547" spans="1:5">
+      <c r="A6547">
+        <v>6545</v>
+      </c>
+      <c r="B6547">
+        <v>0</v>
+      </c>
+      <c r="C6547">
+        <v>222</v>
+      </c>
+      <c r="D6547">
+        <v>1878</v>
+      </c>
+      <c r="E6547">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6548" spans="1:5">
+      <c r="A6548">
+        <v>6546</v>
+      </c>
+      <c r="B6548">
+        <v>0</v>
+      </c>
+      <c r="C6548">
+        <v>223</v>
+      </c>
+      <c r="D6548">
+        <v>1878</v>
+      </c>
+      <c r="E6548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6549" spans="1:5">
+      <c r="A6549">
+        <v>6547</v>
+      </c>
+      <c r="B6549">
+        <v>0</v>
+      </c>
+      <c r="C6549">
+        <v>224</v>
+      </c>
+      <c r="D6549">
+        <v>1878</v>
+      </c>
+      <c r="E6549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6550" spans="1:5">
+      <c r="A6550">
+        <v>6548</v>
+      </c>
+      <c r="B6550">
+        <v>0</v>
+      </c>
+      <c r="C6550">
+        <v>225</v>
+      </c>
+      <c r="D6550">
+        <v>1878</v>
+      </c>
+      <c r="E6550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6551" spans="1:5">
+      <c r="A6551">
+        <v>6549</v>
+      </c>
+      <c r="B6551">
+        <v>0</v>
+      </c>
+      <c r="C6551">
+        <v>226</v>
+      </c>
+      <c r="D6551">
+        <v>1878</v>
+      </c>
+      <c r="E6551">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6552" spans="1:5">
+      <c r="A6552">
+        <v>6550</v>
+      </c>
+      <c r="B6552">
+        <v>0</v>
+      </c>
+      <c r="C6552">
+        <v>227</v>
+      </c>
+      <c r="D6552">
+        <v>1878</v>
+      </c>
+      <c r="E6552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6553" spans="1:5">
+      <c r="A6553">
+        <v>6551</v>
+      </c>
+      <c r="B6553">
+        <v>0</v>
+      </c>
+      <c r="C6553">
+        <v>228</v>
+      </c>
+      <c r="D6553">
+        <v>1878</v>
+      </c>
+      <c r="E6553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6554" spans="1:5">
+      <c r="A6554">
+        <v>6552</v>
+      </c>
+      <c r="B6554">
+        <v>0</v>
+      </c>
+      <c r="C6554">
+        <v>229</v>
+      </c>
+      <c r="D6554">
+        <v>1878</v>
+      </c>
+      <c r="E6554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6555" spans="1:5">
+      <c r="A6555">
+        <v>6553</v>
+      </c>
+      <c r="B6555">
+        <v>0</v>
+      </c>
+      <c r="C6555">
+        <v>230</v>
+      </c>
+      <c r="D6555">
+        <v>1878</v>
+      </c>
+      <c r="E6555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6556" spans="1:5">
+      <c r="A6556">
+        <v>6554</v>
+      </c>
+      <c r="B6556">
+        <v>0</v>
+      </c>
+      <c r="C6556">
+        <v>231</v>
+      </c>
+      <c r="D6556">
+        <v>1878</v>
+      </c>
+      <c r="E6556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6557" spans="1:5">
+      <c r="A6557">
+        <v>6555</v>
+      </c>
+      <c r="B6557">
+        <v>0</v>
+      </c>
+      <c r="C6557">
+        <v>232</v>
+      </c>
+      <c r="D6557">
+        <v>1878</v>
+      </c>
+      <c r="E6557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6558" spans="1:5">
+      <c r="A6558">
+        <v>6556</v>
+      </c>
+      <c r="B6558">
+        <v>0</v>
+      </c>
+      <c r="C6558">
+        <v>233</v>
+      </c>
+      <c r="D6558">
+        <v>1878</v>
+      </c>
+      <c r="E6558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6559" spans="1:5">
+      <c r="A6559">
+        <v>6557</v>
+      </c>
+      <c r="B6559">
+        <v>0</v>
+      </c>
+      <c r="C6559">
+        <v>234</v>
+      </c>
+      <c r="D6559">
+        <v>1878</v>
+      </c>
+      <c r="E6559">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6560" spans="1:5">
+      <c r="A6560">
+        <v>6558</v>
+      </c>
+      <c r="B6560">
+        <v>0</v>
+      </c>
+      <c r="C6560">
+        <v>235</v>
+      </c>
+      <c r="D6560">
+        <v>1878</v>
+      </c>
+      <c r="E6560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6561" spans="1:5">
+      <c r="A6561">
+        <v>6559</v>
+      </c>
+      <c r="B6561">
+        <v>0</v>
+      </c>
+      <c r="C6561">
+        <v>236</v>
+      </c>
+      <c r="D6561">
+        <v>1878</v>
+      </c>
+      <c r="E6561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6562" spans="1:5">
+      <c r="A6562">
+        <v>6560</v>
+      </c>
+      <c r="B6562">
+        <v>0</v>
+      </c>
+      <c r="C6562">
+        <v>237</v>
+      </c>
+      <c r="D6562">
+        <v>1878</v>
+      </c>
+      <c r="E6562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6563" spans="1:5">
+      <c r="A6563">
+        <v>6561</v>
+      </c>
+      <c r="B6563">
+        <v>0</v>
+      </c>
+      <c r="C6563">
+        <v>238</v>
+      </c>
+      <c r="D6563">
+        <v>1878</v>
+      </c>
+      <c r="E6563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6564" spans="1:5">
+      <c r="A6564">
+        <v>6562</v>
+      </c>
+      <c r="B6564">
+        <v>0</v>
+      </c>
+      <c r="C6564">
+        <v>239</v>
+      </c>
+      <c r="D6564">
+        <v>1878</v>
+      </c>
+      <c r="E6564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6565" spans="1:5">
+      <c r="A6565">
+        <v>6563</v>
+      </c>
+      <c r="B6565">
+        <v>0</v>
+      </c>
+      <c r="C6565">
+        <v>240</v>
+      </c>
+      <c r="D6565">
+        <v>1878</v>
+      </c>
+      <c r="E6565">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6566" spans="1:5">
+      <c r="A6566">
+        <v>6564</v>
+      </c>
+      <c r="B6566">
+        <v>0</v>
+      </c>
+      <c r="C6566">
+        <v>241</v>
+      </c>
+      <c r="D6566">
+        <v>1878</v>
+      </c>
+      <c r="E6566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6567" spans="1:5">
+      <c r="A6567">
+        <v>6565</v>
+      </c>
+      <c r="B6567">
+        <v>0</v>
+      </c>
+      <c r="C6567">
+        <v>242</v>
+      </c>
+      <c r="D6567">
+        <v>1878</v>
+      </c>
+      <c r="E6567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6568" spans="1:5">
+      <c r="A6568">
+        <v>6566</v>
+      </c>
+      <c r="B6568">
+        <v>0</v>
+      </c>
+      <c r="C6568">
+        <v>243</v>
+      </c>
+      <c r="D6568">
+        <v>1878</v>
+      </c>
+      <c r="E6568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6569" spans="1:5">
+      <c r="A6569">
+        <v>6567</v>
+      </c>
+      <c r="B6569">
+        <v>0</v>
+      </c>
+      <c r="C6569">
+        <v>244</v>
+      </c>
+      <c r="D6569">
+        <v>1878</v>
+      </c>
+      <c r="E6569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6570" spans="1:5">
+      <c r="A6570">
+        <v>6568</v>
+      </c>
+      <c r="B6570">
+        <v>0</v>
+      </c>
+      <c r="C6570">
+        <v>245</v>
+      </c>
+      <c r="D6570">
+        <v>1878</v>
+      </c>
+      <c r="E6570">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6571" spans="1:5">
+      <c r="A6571">
+        <v>6569</v>
+      </c>
+      <c r="B6571">
+        <v>0</v>
+      </c>
+      <c r="C6571">
+        <v>246</v>
+      </c>
+      <c r="D6571">
+        <v>1878</v>
+      </c>
+      <c r="E6571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6572" spans="1:5">
+      <c r="A6572">
+        <v>6570</v>
+      </c>
+      <c r="B6572">
+        <v>0</v>
+      </c>
+      <c r="C6572">
+        <v>247</v>
+      </c>
+      <c r="D6572">
+        <v>1878</v>
+      </c>
+      <c r="E6572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6573" spans="1:5">
+      <c r="A6573">
+        <v>6571</v>
+      </c>
+      <c r="B6573">
+        <v>0</v>
+      </c>
+      <c r="C6573">
+        <v>248</v>
+      </c>
+      <c r="D6573">
+        <v>1878</v>
+      </c>
+      <c r="E6573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6574" spans="1:5">
+      <c r="A6574">
+        <v>6572</v>
+      </c>
+      <c r="B6574">
+        <v>0</v>
+      </c>
+      <c r="C6574">
+        <v>249</v>
+      </c>
+      <c r="D6574">
+        <v>1878</v>
+      </c>
+      <c r="E6574">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6575" spans="1:5">
+      <c r="A6575">
+        <v>6573</v>
+      </c>
+      <c r="B6575">
+        <v>0</v>
+      </c>
+      <c r="C6575">
+        <v>250</v>
+      </c>
+      <c r="D6575">
+        <v>1878</v>
+      </c>
+      <c r="E6575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6576" spans="1:5">
+      <c r="A6576">
+        <v>6574</v>
+      </c>
+      <c r="B6576">
+        <v>0</v>
+      </c>
+      <c r="C6576">
+        <v>251</v>
+      </c>
+      <c r="D6576">
+        <v>1878</v>
+      </c>
+      <c r="E6576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6577" spans="1:5">
+      <c r="A6577">
+        <v>6575</v>
+      </c>
+      <c r="B6577">
+        <v>0</v>
+      </c>
+      <c r="C6577">
+        <v>252</v>
+      </c>
+      <c r="D6577">
+        <v>1878</v>
+      </c>
+      <c r="E6577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6578" spans="1:5">
+      <c r="A6578">
+        <v>6576</v>
+      </c>
+      <c r="B6578">
+        <v>0</v>
+      </c>
+      <c r="C6578">
+        <v>253</v>
+      </c>
+      <c r="D6578">
+        <v>1878</v>
+      </c>
+      <c r="E6578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6579" spans="1:5">
+      <c r="A6579">
+        <v>6577</v>
+      </c>
+      <c r="B6579">
+        <v>0</v>
+      </c>
+      <c r="C6579">
+        <v>254</v>
+      </c>
+      <c r="D6579">
+        <v>1878</v>
+      </c>
+      <c r="E6579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6580" spans="1:5">
+      <c r="A6580">
+        <v>6578</v>
+      </c>
+      <c r="B6580">
+        <v>0</v>
+      </c>
+      <c r="C6580">
+        <v>255</v>
+      </c>
+      <c r="D6580">
+        <v>1878</v>
+      </c>
+      <c r="E6580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6581" spans="1:5">
+      <c r="A6581">
+        <v>6579</v>
+      </c>
+      <c r="B6581">
+        <v>0</v>
+      </c>
+      <c r="C6581">
+        <v>256</v>
+      </c>
+      <c r="D6581">
+        <v>1878</v>
+      </c>
+      <c r="E6581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6582" spans="1:5">
+      <c r="A6582">
+        <v>6580</v>
+      </c>
+      <c r="B6582">
+        <v>0</v>
+      </c>
+      <c r="C6582">
+        <v>257</v>
+      </c>
+      <c r="D6582">
+        <v>1878</v>
+      </c>
+      <c r="E6582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6583" spans="1:5">
+      <c r="A6583">
+        <v>6581</v>
+      </c>
+      <c r="B6583">
+        <v>0</v>
+      </c>
+      <c r="C6583">
+        <v>258</v>
+      </c>
+      <c r="D6583">
+        <v>1878</v>
+      </c>
+      <c r="E6583">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6584" spans="1:5">
+      <c r="A6584">
+        <v>6582</v>
+      </c>
+      <c r="B6584">
+        <v>0</v>
+      </c>
+      <c r="C6584">
+        <v>259</v>
+      </c>
+      <c r="D6584">
+        <v>1878</v>
+      </c>
+      <c r="E6584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6585" spans="1:5">
+      <c r="A6585">
+        <v>6583</v>
+      </c>
+      <c r="B6585">
+        <v>0</v>
+      </c>
+      <c r="C6585">
+        <v>260</v>
+      </c>
+      <c r="D6585">
+        <v>1878</v>
+      </c>
+      <c r="E6585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6586" spans="1:5">
+      <c r="A6586">
+        <v>6584</v>
+      </c>
+      <c r="B6586">
+        <v>0</v>
+      </c>
+      <c r="C6586">
+        <v>261</v>
+      </c>
+      <c r="D6586">
+        <v>1878</v>
+      </c>
+      <c r="E6586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6587" spans="1:5">
+      <c r="A6587">
+        <v>6585</v>
+      </c>
+      <c r="B6587">
+        <v>0</v>
+      </c>
+      <c r="C6587">
+        <v>262</v>
+      </c>
+      <c r="D6587">
+        <v>1878</v>
+      </c>
+      <c r="E6587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6588" spans="1:5">
+      <c r="A6588">
+        <v>6586</v>
+      </c>
+      <c r="B6588">
+        <v>0</v>
+      </c>
+      <c r="C6588">
+        <v>263</v>
+      </c>
+      <c r="D6588">
+        <v>1878</v>
+      </c>
+      <c r="E6588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6589" spans="1:5">
+      <c r="A6589">
+        <v>6587</v>
+      </c>
+      <c r="B6589">
+        <v>0</v>
+      </c>
+      <c r="C6589">
+        <v>264</v>
+      </c>
+      <c r="D6589">
+        <v>1878</v>
+      </c>
+      <c r="E6589">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6590" spans="1:5">
+      <c r="A6590">
+        <v>6588</v>
+      </c>
+      <c r="B6590">
+        <v>0</v>
+      </c>
+      <c r="C6590">
+        <v>265</v>
+      </c>
+      <c r="D6590">
+        <v>1878</v>
+      </c>
+      <c r="E6590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6591" spans="1:5">
+      <c r="A6591">
+        <v>6589</v>
+      </c>
+      <c r="B6591">
+        <v>0</v>
+      </c>
+      <c r="C6591">
+        <v>266</v>
+      </c>
+      <c r="D6591">
+        <v>1878</v>
+      </c>
+      <c r="E6591">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6592" spans="1:5">
+      <c r="A6592">
+        <v>6590</v>
+      </c>
+      <c r="B6592">
+        <v>0</v>
+      </c>
+      <c r="C6592">
+        <v>267</v>
+      </c>
+      <c r="D6592">
+        <v>1878</v>
+      </c>
+      <c r="E6592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6593" spans="1:5">
+      <c r="A6593">
+        <v>6591</v>
+      </c>
+      <c r="B6593">
+        <v>0</v>
+      </c>
+      <c r="C6593">
+        <v>268</v>
+      </c>
+      <c r="D6593">
+        <v>1878</v>
+      </c>
+      <c r="E6593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6594" spans="1:5">
+      <c r="A6594">
+        <v>6592</v>
+      </c>
+      <c r="B6594">
+        <v>0</v>
+      </c>
+      <c r="C6594">
+        <v>269</v>
+      </c>
+      <c r="D6594">
+        <v>1878</v>
+      </c>
+      <c r="E6594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6595" spans="1:5">
+      <c r="A6595">
+        <v>6593</v>
+      </c>
+      <c r="B6595">
+        <v>0</v>
+      </c>
+      <c r="C6595">
+        <v>270</v>
+      </c>
+      <c r="D6595">
+        <v>1878</v>
+      </c>
+      <c r="E6595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6596" spans="1:5">
+      <c r="A6596">
+        <v>6594</v>
+      </c>
+      <c r="B6596">
+        <v>0</v>
+      </c>
+      <c r="C6596">
+        <v>271</v>
+      </c>
+      <c r="D6596">
+        <v>1878</v>
+      </c>
+      <c r="E6596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6597" spans="1:5">
+      <c r="A6597">
+        <v>6595</v>
+      </c>
+      <c r="B6597">
+        <v>0</v>
+      </c>
+      <c r="C6597">
+        <v>272</v>
+      </c>
+      <c r="D6597">
+        <v>1878</v>
+      </c>
+      <c r="E6597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6598" spans="1:5">
+      <c r="A6598">
+        <v>6596</v>
+      </c>
+      <c r="B6598">
+        <v>0</v>
+      </c>
+      <c r="C6598">
+        <v>273</v>
+      </c>
+      <c r="D6598">
+        <v>1878</v>
+      </c>
+      <c r="E6598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6599" spans="1:5">
+      <c r="A6599">
+        <v>6597</v>
+      </c>
+      <c r="B6599">
+        <v>0</v>
+      </c>
+      <c r="C6599">
+        <v>274</v>
+      </c>
+      <c r="D6599">
+        <v>1878</v>
+      </c>
+      <c r="E6599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6600" spans="1:5">
+      <c r="A6600">
+        <v>6598</v>
+      </c>
+      <c r="B6600">
+        <v>0</v>
+      </c>
+      <c r="C6600">
+        <v>275</v>
+      </c>
+      <c r="D6600">
+        <v>1878</v>
+      </c>
+      <c r="E6600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6601" spans="1:5">
+      <c r="A6601">
+        <v>6599</v>
+      </c>
+      <c r="B6601">
+        <v>0</v>
+      </c>
+      <c r="C6601">
+        <v>276</v>
+      </c>
+      <c r="D6601">
+        <v>1878</v>
+      </c>
+      <c r="E6601">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6602" spans="1:5">
+      <c r="A6602">
+        <v>6600</v>
+      </c>
+      <c r="B6602">
+        <v>0</v>
+      </c>
+      <c r="C6602">
+        <v>277</v>
+      </c>
+      <c r="D6602">
+        <v>1878</v>
+      </c>
+      <c r="E6602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6603" spans="1:5">
+      <c r="A6603">
+        <v>6601</v>
+      </c>
+      <c r="B6603">
+        <v>0</v>
+      </c>
+      <c r="C6603">
+        <v>278</v>
+      </c>
+      <c r="D6603">
+        <v>1878</v>
+      </c>
+      <c r="E6603">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6604" spans="1:5">
+      <c r="A6604">
+        <v>6602</v>
+      </c>
+      <c r="B6604">
+        <v>0</v>
+      </c>
+      <c r="C6604">
+        <v>279</v>
+      </c>
+      <c r="D6604">
+        <v>1878</v>
+      </c>
+      <c r="E6604">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6605" spans="1:5">
+      <c r="A6605">
+        <v>6603</v>
+      </c>
+      <c r="B6605">
+        <v>0</v>
+      </c>
+      <c r="C6605">
+        <v>280</v>
+      </c>
+      <c r="D6605">
+        <v>1878</v>
+      </c>
+      <c r="E6605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6606" spans="1:5">
+      <c r="A6606">
+        <v>6604</v>
+      </c>
+      <c r="B6606">
+        <v>0</v>
+      </c>
+      <c r="C6606">
+        <v>281</v>
+      </c>
+      <c r="D6606">
+        <v>1878</v>
+      </c>
+      <c r="E6606">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6607" spans="1:5">
+      <c r="A6607">
+        <v>6605</v>
+      </c>
+      <c r="B6607">
+        <v>0</v>
+      </c>
+      <c r="C6607">
+        <v>282</v>
+      </c>
+      <c r="D6607">
+        <v>1878</v>
+      </c>
+      <c r="E6607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6608" spans="1:5">
+      <c r="A6608">
+        <v>6606</v>
+      </c>
+      <c r="B6608">
+        <v>0</v>
+      </c>
+      <c r="C6608">
+        <v>283</v>
+      </c>
+      <c r="D6608">
+        <v>1878</v>
+      </c>
+      <c r="E6608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6609" spans="1:5">
+      <c r="A6609">
+        <v>6607</v>
+      </c>
+      <c r="B6609">
+        <v>0</v>
+      </c>
+      <c r="C6609">
+        <v>284</v>
+      </c>
+      <c r="D6609">
+        <v>1878</v>
+      </c>
+      <c r="E6609">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6610" spans="1:5">
+      <c r="A6610">
+        <v>6608</v>
+      </c>
+      <c r="B6610">
+        <v>0</v>
+      </c>
+      <c r="C6610">
+        <v>285</v>
+      </c>
+      <c r="D6610">
+        <v>1878</v>
+      </c>
+      <c r="E6610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6611" spans="1:5">
+      <c r="A6611">
+        <v>6609</v>
+      </c>
+      <c r="B6611">
+        <v>0</v>
+      </c>
+      <c r="C6611">
+        <v>286</v>
+      </c>
+      <c r="D6611">
+        <v>1878</v>
+      </c>
+      <c r="E6611">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6612" spans="1:5">
+      <c r="A6612">
+        <v>6610</v>
+      </c>
+      <c r="B6612">
+        <v>0</v>
+      </c>
+      <c r="C6612">
+        <v>287</v>
+      </c>
+      <c r="D6612">
+        <v>1878</v>
+      </c>
+      <c r="E6612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6613" spans="1:5">
+      <c r="A6613">
+        <v>6611</v>
+      </c>
+      <c r="B6613">
+        <v>0</v>
+      </c>
+      <c r="C6613">
+        <v>288</v>
+      </c>
+      <c r="D6613">
+        <v>1878</v>
+      </c>
+      <c r="E6613">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6614" spans="1:5">
+      <c r="A6614">
+        <v>6612</v>
+      </c>
+      <c r="B6614">
+        <v>0</v>
+      </c>
+      <c r="C6614">
+        <v>289</v>
+      </c>
+      <c r="D6614">
+        <v>1878</v>
+      </c>
+      <c r="E6614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6615" spans="1:5">
+      <c r="A6615">
+        <v>6613</v>
+      </c>
+      <c r="B6615">
+        <v>0</v>
+      </c>
+      <c r="C6615">
+        <v>290</v>
+      </c>
+      <c r="D6615">
+        <v>1878</v>
+      </c>
+      <c r="E6615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6616" spans="1:5">
+      <c r="A6616">
+        <v>6614</v>
+      </c>
+      <c r="B6616">
+        <v>0</v>
+      </c>
+      <c r="C6616">
+        <v>291</v>
+      </c>
+      <c r="D6616">
+        <v>1878</v>
+      </c>
+      <c r="E6616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6617" spans="1:5">
+      <c r="A6617">
+        <v>6615</v>
+      </c>
+      <c r="B6617">
+        <v>0</v>
+      </c>
+      <c r="C6617">
+        <v>292</v>
+      </c>
+      <c r="D6617">
+        <v>1878</v>
+      </c>
+      <c r="E6617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6618" spans="1:5">
+      <c r="A6618">
+        <v>6616</v>
+      </c>
+      <c r="B6618">
+        <v>0</v>
+      </c>
+      <c r="C6618">
+        <v>293</v>
+      </c>
+      <c r="D6618">
+        <v>1878</v>
+      </c>
+      <c r="E6618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6619" spans="1:5">
+      <c r="A6619">
+        <v>6617</v>
+      </c>
+      <c r="B6619">
+        <v>0</v>
+      </c>
+      <c r="C6619">
+        <v>294</v>
+      </c>
+      <c r="D6619">
+        <v>1878</v>
+      </c>
+      <c r="E6619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6620" spans="1:5">
+      <c r="A6620">
+        <v>6618</v>
+      </c>
+      <c r="B6620">
+        <v>0</v>
+      </c>
+      <c r="C6620">
+        <v>295</v>
+      </c>
+      <c r="D6620">
+        <v>1878</v>
+      </c>
+      <c r="E6620">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6621" spans="1:5">
+      <c r="A6621">
+        <v>6619</v>
+      </c>
+      <c r="B6621">
+        <v>0</v>
+      </c>
+      <c r="C6621">
+        <v>296</v>
+      </c>
+      <c r="D6621">
+        <v>1878</v>
+      </c>
+      <c r="E6621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6622" spans="1:5">
+      <c r="A6622">
+        <v>6620</v>
+      </c>
+      <c r="B6622">
+        <v>0</v>
+      </c>
+      <c r="C6622">
+        <v>297</v>
+      </c>
+      <c r="D6622">
+        <v>1878</v>
+      </c>
+      <c r="E6622">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6623" spans="1:5">
+      <c r="A6623">
+        <v>6621</v>
+      </c>
+      <c r="B6623">
+        <v>0</v>
+      </c>
+      <c r="C6623">
+        <v>298</v>
+      </c>
+      <c r="D6623">
+        <v>1878</v>
+      </c>
+      <c r="E6623">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6624" spans="1:5">
+      <c r="A6624">
+        <v>6622</v>
+      </c>
+      <c r="B6624">
+        <v>0</v>
+      </c>
+      <c r="C6624">
+        <v>299</v>
+      </c>
+      <c r="D6624">
+        <v>1878</v>
+      </c>
+      <c r="E6624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6625" spans="1:5">
+      <c r="A6625">
+        <v>6623</v>
+      </c>
+      <c r="B6625">
+        <v>0</v>
+      </c>
+      <c r="C6625">
+        <v>300</v>
+      </c>
+      <c r="D6625">
+        <v>1878</v>
+      </c>
+      <c r="E6625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6626" spans="1:5">
+      <c r="A6626">
+        <v>6624</v>
+      </c>
+      <c r="B6626">
+        <v>0</v>
+      </c>
+      <c r="C6626">
+        <v>301</v>
+      </c>
+      <c r="D6626">
+        <v>1878</v>
+      </c>
+      <c r="E6626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6627" spans="1:5">
+      <c r="A6627">
+        <v>6625</v>
+      </c>
+      <c r="B6627">
+        <v>0</v>
+      </c>
+      <c r="C6627">
+        <v>302</v>
+      </c>
+      <c r="D6627">
+        <v>1878</v>
+      </c>
+      <c r="E6627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6628" spans="1:5">
+      <c r="A6628">
+        <v>6626</v>
+      </c>
+      <c r="B6628">
+        <v>0</v>
+      </c>
+      <c r="C6628">
+        <v>303</v>
+      </c>
+      <c r="D6628">
+        <v>1878</v>
+      </c>
+      <c r="E6628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6629" spans="1:5">
+      <c r="A6629">
+        <v>6627</v>
+      </c>
+      <c r="B6629">
+        <v>0</v>
+      </c>
+      <c r="C6629">
+        <v>304</v>
+      </c>
+      <c r="D6629">
+        <v>1878</v>
+      </c>
+      <c r="E6629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6630" spans="1:5">
+      <c r="A6630">
+        <v>6628</v>
+      </c>
+      <c r="B6630">
+        <v>0</v>
+      </c>
+      <c r="C6630">
+        <v>305</v>
+      </c>
+      <c r="D6630">
+        <v>1878</v>
+      </c>
+      <c r="E6630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6631" spans="1:5">
+      <c r="A6631">
+        <v>6629</v>
+      </c>
+      <c r="B6631">
+        <v>0</v>
+      </c>
+      <c r="C6631">
+        <v>306</v>
+      </c>
+      <c r="D6631">
+        <v>1878</v>
+      </c>
+      <c r="E6631">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6632" spans="1:5">
+      <c r="A6632">
+        <v>6630</v>
+      </c>
+      <c r="B6632">
+        <v>0</v>
+      </c>
+      <c r="C6632">
+        <v>307</v>
+      </c>
+      <c r="D6632">
+        <v>1878</v>
+      </c>
+      <c r="E6632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6633" spans="1:5">
+      <c r="A6633">
+        <v>6631</v>
+      </c>
+      <c r="B6633">
+        <v>0</v>
+      </c>
+      <c r="C6633">
+        <v>308</v>
+      </c>
+      <c r="D6633">
+        <v>1878</v>
+      </c>
+      <c r="E6633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6634" spans="1:5">
+      <c r="A6634">
+        <v>6632</v>
+      </c>
+      <c r="B6634">
+        <v>0</v>
+      </c>
+      <c r="C6634">
+        <v>309</v>
+      </c>
+      <c r="D6634">
+        <v>1878</v>
+      </c>
+      <c r="E6634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6635" spans="1:5">
+      <c r="A6635">
+        <v>6633</v>
+      </c>
+      <c r="B6635">
+        <v>0</v>
+      </c>
+      <c r="C6635">
+        <v>310</v>
+      </c>
+      <c r="D6635">
+        <v>1878</v>
+      </c>
+      <c r="E6635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6636" spans="1:5">
+      <c r="A6636">
+        <v>6634</v>
+      </c>
+      <c r="B6636">
+        <v>0</v>
+      </c>
+      <c r="C6636">
+        <v>311</v>
+      </c>
+      <c r="D6636">
+        <v>1878</v>
+      </c>
+      <c r="E6636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6637" spans="1:5">
+      <c r="A6637">
+        <v>6635</v>
+      </c>
+      <c r="B6637">
+        <v>0</v>
+      </c>
+      <c r="C6637">
+        <v>312</v>
+      </c>
+      <c r="D6637">
+        <v>1878</v>
+      </c>
+      <c r="E6637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6638" spans="1:5">
+      <c r="A6638">
+        <v>6636</v>
+      </c>
+      <c r="B6638">
+        <v>0</v>
+      </c>
+      <c r="C6638">
+        <v>313</v>
+      </c>
+      <c r="D6638">
+        <v>1878</v>
+      </c>
+      <c r="E6638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6639" spans="1:5">
+      <c r="A6639">
+        <v>6637</v>
+      </c>
+      <c r="B6639">
+        <v>0</v>
+      </c>
+      <c r="C6639">
+        <v>314</v>
+      </c>
+      <c r="D6639">
+        <v>1878</v>
+      </c>
+      <c r="E6639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6640" spans="1:5">
+      <c r="A6640">
+        <v>6638</v>
+      </c>
+      <c r="B6640">
+        <v>0</v>
+      </c>
+      <c r="C6640">
+        <v>315</v>
+      </c>
+      <c r="D6640">
+        <v>1878</v>
+      </c>
+      <c r="E6640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6641" spans="1:5">
+      <c r="A6641">
+        <v>6639</v>
+      </c>
+      <c r="B6641">
+        <v>0</v>
+      </c>
+      <c r="C6641">
+        <v>316</v>
+      </c>
+      <c r="D6641">
+        <v>1878</v>
+      </c>
+      <c r="E6641">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6642" spans="1:5">
+      <c r="A6642">
+        <v>6640</v>
+      </c>
+      <c r="B6642">
+        <v>0</v>
+      </c>
+      <c r="C6642">
+        <v>317</v>
+      </c>
+      <c r="D6642">
+        <v>1878</v>
+      </c>
+      <c r="E6642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6643" spans="1:5">
+      <c r="A6643">
+        <v>6641</v>
+      </c>
+      <c r="B6643">
+        <v>0</v>
+      </c>
+      <c r="C6643">
+        <v>318</v>
+      </c>
+      <c r="D6643">
+        <v>1878</v>
+      </c>
+      <c r="E6643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6644" spans="1:5">
+      <c r="A6644">
+        <v>6642</v>
+      </c>
+      <c r="B6644">
+        <v>0</v>
+      </c>
+      <c r="C6644">
+        <v>319</v>
+      </c>
+      <c r="D6644">
+        <v>1878</v>
+      </c>
+      <c r="E6644">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6645" spans="1:5">
+      <c r="A6645">
+        <v>6643</v>
+      </c>
+      <c r="B6645">
+        <v>0</v>
+      </c>
+      <c r="C6645">
+        <v>320</v>
+      </c>
+      <c r="D6645">
+        <v>1878</v>
+      </c>
+      <c r="E6645">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6646" spans="1:5">
+      <c r="A6646">
+        <v>6644</v>
+      </c>
+      <c r="B6646">
+        <v>0</v>
+      </c>
+      <c r="C6646">
+        <v>321</v>
+      </c>
+      <c r="D6646">
+        <v>1878</v>
+      </c>
+      <c r="E6646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6647" spans="1:5">
+      <c r="A6647">
+        <v>6645</v>
+      </c>
+      <c r="B6647">
+        <v>0</v>
+      </c>
+      <c r="C6647">
+        <v>322</v>
+      </c>
+      <c r="D6647">
+        <v>1878</v>
+      </c>
+      <c r="E6647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6648" spans="1:5">
+      <c r="A6648">
+        <v>6646</v>
+      </c>
+      <c r="B6648">
+        <v>0</v>
+      </c>
+      <c r="C6648">
+        <v>323</v>
+      </c>
+      <c r="D6648">
+        <v>1878</v>
+      </c>
+      <c r="E6648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6649" spans="1:5">
+      <c r="A6649">
+        <v>6647</v>
+      </c>
+      <c r="B6649">
+        <v>0</v>
+      </c>
+      <c r="C6649">
+        <v>324</v>
+      </c>
+      <c r="D6649">
+        <v>1878</v>
+      </c>
+      <c r="E6649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6650" spans="1:5">
+      <c r="A6650">
+        <v>6648</v>
+      </c>
+      <c r="B6650">
+        <v>0</v>
+      </c>
+      <c r="C6650">
+        <v>325</v>
+      </c>
+      <c r="D6650">
+        <v>1878</v>
+      </c>
+      <c r="E6650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6651" spans="1:5">
+      <c r="A6651">
+        <v>6649</v>
+      </c>
+      <c r="B6651">
+        <v>0</v>
+      </c>
+      <c r="C6651">
+        <v>326</v>
+      </c>
+      <c r="D6651">
+        <v>1878</v>
+      </c>
+      <c r="E6651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6652" spans="1:5">
+      <c r="A6652">
+        <v>6650</v>
+      </c>
+      <c r="B6652">
+        <v>0</v>
+      </c>
+      <c r="C6652">
+        <v>327</v>
+      </c>
+      <c r="D6652">
+        <v>1878</v>
+      </c>
+      <c r="E6652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6653" spans="1:5">
+      <c r="A6653">
+        <v>6651</v>
+      </c>
+      <c r="B6653">
+        <v>0</v>
+      </c>
+      <c r="C6653">
+        <v>328</v>
+      </c>
+      <c r="D6653">
+        <v>1878</v>
+      </c>
+      <c r="E6653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6654" spans="1:5">
+      <c r="A6654">
+        <v>6652</v>
+      </c>
+      <c r="B6654">
+        <v>0</v>
+      </c>
+      <c r="C6654">
+        <v>329</v>
+      </c>
+      <c r="D6654">
+        <v>1878</v>
+      </c>
+      <c r="E6654">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6655" spans="1:5">
+      <c r="A6655">
+        <v>6653</v>
+      </c>
+      <c r="B6655">
+        <v>0</v>
+      </c>
+      <c r="C6655">
+        <v>330</v>
+      </c>
+      <c r="D6655">
+        <v>1878</v>
+      </c>
+      <c r="E6655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6656" spans="1:5">
+      <c r="A6656">
+        <v>6654</v>
+      </c>
+      <c r="B6656">
+        <v>0</v>
+      </c>
+      <c r="C6656">
+        <v>331</v>
+      </c>
+      <c r="D6656">
+        <v>1878</v>
+      </c>
+      <c r="E6656">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6657" spans="1:5">
+      <c r="A6657">
+        <v>6655</v>
+      </c>
+      <c r="B6657">
+        <v>0</v>
+      </c>
+      <c r="C6657">
+        <v>332</v>
+      </c>
+      <c r="D6657">
+        <v>1878</v>
+      </c>
+      <c r="E6657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6658" spans="1:5">
+      <c r="A6658">
+        <v>6656</v>
+      </c>
+      <c r="B6658">
+        <v>0</v>
+      </c>
+      <c r="C6658">
+        <v>333</v>
+      </c>
+      <c r="D6658">
+        <v>1878</v>
+      </c>
+      <c r="E6658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6659" spans="1:5">
+      <c r="A6659">
+        <v>6657</v>
+      </c>
+      <c r="B6659">
+        <v>0</v>
+      </c>
+      <c r="C6659">
+        <v>334</v>
+      </c>
+      <c r="D6659">
+        <v>1878</v>
+      </c>
+      <c r="E6659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6660" spans="1:5">
+      <c r="A6660">
+        <v>6658</v>
+      </c>
+      <c r="B6660">
+        <v>0</v>
+      </c>
+      <c r="C6660">
+        <v>335</v>
+      </c>
+      <c r="D6660">
+        <v>1878</v>
+      </c>
+      <c r="E6660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6661" spans="1:5">
+      <c r="A6661">
+        <v>6659</v>
+      </c>
+      <c r="B6661">
+        <v>0</v>
+      </c>
+      <c r="C6661">
+        <v>336</v>
+      </c>
+      <c r="D6661">
+        <v>1878</v>
+      </c>
+      <c r="E6661">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6662" spans="1:5">
+      <c r="A6662">
+        <v>6660</v>
+      </c>
+      <c r="B6662">
+        <v>0</v>
+      </c>
+      <c r="C6662">
+        <v>337</v>
+      </c>
+      <c r="D6662">
+        <v>1878</v>
+      </c>
+      <c r="E6662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6663" spans="1:5">
+      <c r="A6663">
+        <v>6661</v>
+      </c>
+      <c r="B6663">
+        <v>0</v>
+      </c>
+      <c r="C6663">
+        <v>338</v>
+      </c>
+      <c r="D6663">
+        <v>1878</v>
+      </c>
+      <c r="E6663">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6664" spans="1:5">
+      <c r="A6664">
+        <v>6662</v>
+      </c>
+      <c r="B6664">
+        <v>0</v>
+      </c>
+      <c r="C6664">
+        <v>339</v>
+      </c>
+      <c r="D6664">
+        <v>1878</v>
+      </c>
+      <c r="E6664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6665" spans="1:5">
+      <c r="A6665">
+        <v>6663</v>
+      </c>
+      <c r="B6665">
+        <v>0</v>
+      </c>
+      <c r="C6665">
+        <v>340</v>
+      </c>
+      <c r="D6665">
+        <v>1878</v>
+      </c>
+      <c r="E6665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6666" spans="1:5">
+      <c r="A6666">
+        <v>6664</v>
+      </c>
+      <c r="B6666">
+        <v>0</v>
+      </c>
+      <c r="C6666">
+        <v>341</v>
+      </c>
+      <c r="D6666">
+        <v>1878</v>
+      </c>
+      <c r="E6666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6667" spans="1:5">
+      <c r="A6667">
+        <v>6665</v>
+      </c>
+      <c r="B6667">
+        <v>0</v>
+      </c>
+      <c r="C6667">
+        <v>342</v>
+      </c>
+      <c r="D6667">
+        <v>1878</v>
+      </c>
+      <c r="E6667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6668" spans="1:5">
+      <c r="A6668">
+        <v>6666</v>
+      </c>
+      <c r="B6668">
+        <v>0</v>
+      </c>
+      <c r="C6668">
+        <v>343</v>
+      </c>
+      <c r="D6668">
+        <v>1878</v>
+      </c>
+      <c r="E6668">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6669" spans="1:5">
+      <c r="A6669">
+        <v>6667</v>
+      </c>
+      <c r="B6669">
+        <v>0</v>
+      </c>
+      <c r="C6669">
+        <v>344</v>
+      </c>
+      <c r="D6669">
+        <v>1878</v>
+      </c>
+      <c r="E6669">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6670" spans="1:5">
+      <c r="A6670">
+        <v>6668</v>
+      </c>
+      <c r="B6670">
+        <v>0</v>
+      </c>
+      <c r="C6670">
+        <v>345</v>
+      </c>
+      <c r="D6670">
+        <v>1878</v>
+      </c>
+      <c r="E6670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6671" spans="1:5">
+      <c r="A6671">
+        <v>6669</v>
+      </c>
+      <c r="B6671">
+        <v>0</v>
+      </c>
+      <c r="C6671">
+        <v>346</v>
+      </c>
+      <c r="D6671">
+        <v>1878</v>
+      </c>
+      <c r="E6671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6672" spans="1:5">
+      <c r="A6672">
+        <v>6670</v>
+      </c>
+      <c r="B6672">
+        <v>0</v>
+      </c>
+      <c r="C6672">
+        <v>347</v>
+      </c>
+      <c r="D6672">
+        <v>1878</v>
+      </c>
+      <c r="E6672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6673" spans="1:5">
+      <c r="A6673">
+        <v>6671</v>
+      </c>
+      <c r="B6673">
+        <v>0</v>
+      </c>
+      <c r="C6673">
+        <v>348</v>
+      </c>
+      <c r="D6673">
+        <v>1878</v>
+      </c>
+      <c r="E6673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6674" spans="1:5">
+      <c r="A6674">
+        <v>6672</v>
+      </c>
+      <c r="B6674">
+        <v>0</v>
+      </c>
+      <c r="C6674">
+        <v>349</v>
+      </c>
+      <c r="D6674">
+        <v>1878</v>
+      </c>
+      <c r="E6674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6675" spans="1:5">
+      <c r="A6675">
+        <v>6673</v>
+      </c>
+      <c r="B6675">
+        <v>0</v>
+      </c>
+      <c r="C6675">
+        <v>350</v>
+      </c>
+      <c r="D6675">
+        <v>1878</v>
+      </c>
+      <c r="E6675">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6676" spans="1:5">
+      <c r="A6676">
+        <v>6674</v>
+      </c>
+      <c r="B6676">
+        <v>0</v>
+      </c>
+      <c r="C6676">
+        <v>351</v>
+      </c>
+      <c r="D6676">
+        <v>1878</v>
+      </c>
+      <c r="E6676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6677" spans="1:5">
+      <c r="A6677">
+        <v>6675</v>
+      </c>
+      <c r="B6677">
+        <v>0</v>
+      </c>
+      <c r="C6677">
+        <v>352</v>
+      </c>
+      <c r="D6677">
+        <v>1878</v>
+      </c>
+      <c r="E6677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6678" spans="1:5">
+      <c r="A6678">
+        <v>6676</v>
+      </c>
+      <c r="B6678">
+        <v>0</v>
+      </c>
+      <c r="C6678">
+        <v>353</v>
+      </c>
+      <c r="D6678">
+        <v>1878</v>
+      </c>
+      <c r="E6678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6679" spans="1:5">
+      <c r="A6679">
+        <v>6677</v>
+      </c>
+      <c r="B6679">
+        <v>0</v>
+      </c>
+      <c r="C6679">
+        <v>354</v>
+      </c>
+      <c r="D6679">
+        <v>1878</v>
+      </c>
+      <c r="E6679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6680" spans="1:5">
+      <c r="A6680">
+        <v>6678</v>
+      </c>
+      <c r="B6680">
+        <v>0</v>
+      </c>
+      <c r="C6680">
+        <v>355</v>
+      </c>
+      <c r="D6680">
+        <v>1878</v>
+      </c>
+      <c r="E6680">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6681" spans="1:5">
+      <c r="A6681">
+        <v>6679</v>
+      </c>
+      <c r="B6681">
+        <v>0</v>
+      </c>
+      <c r="C6681">
+        <v>356</v>
+      </c>
+      <c r="D6681">
+        <v>1878</v>
+      </c>
+      <c r="E6681">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6682" spans="1:5">
+      <c r="A6682">
+        <v>6680</v>
+      </c>
+      <c r="B6682">
+        <v>0</v>
+      </c>
+      <c r="C6682">
+        <v>357</v>
+      </c>
+      <c r="D6682">
+        <v>1878</v>
+      </c>
+      <c r="E6682">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6683" spans="1:5">
+      <c r="A6683">
+        <v>6681</v>
+      </c>
+      <c r="B6683">
+        <v>0</v>
+      </c>
+      <c r="C6683">
+        <v>358</v>
+      </c>
+      <c r="D6683">
+        <v>1878</v>
+      </c>
+      <c r="E6683">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6684" spans="1:5">
+      <c r="A6684">
+        <v>6682</v>
+      </c>
+      <c r="B6684">
+        <v>0</v>
+      </c>
+      <c r="C6684">
+        <v>359</v>
+      </c>
+      <c r="D6684">
+        <v>1878</v>
+      </c>
+      <c r="E6684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6685" spans="1:5">
+      <c r="A6685">
+        <v>6683</v>
+      </c>
+      <c r="B6685">
+        <v>0</v>
+      </c>
+      <c r="C6685">
+        <v>360</v>
+      </c>
+      <c r="D6685">
+        <v>1878</v>
+      </c>
+      <c r="E6685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6686" spans="1:5">
+      <c r="A6686">
+        <v>6684</v>
+      </c>
+      <c r="B6686">
+        <v>0</v>
+      </c>
+      <c r="C6686">
+        <v>361</v>
+      </c>
+      <c r="D6686">
+        <v>1878</v>
+      </c>
+      <c r="E6686">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6687" spans="1:5">
+      <c r="A6687">
+        <v>6685</v>
+      </c>
+      <c r="B6687">
+        <v>0</v>
+      </c>
+      <c r="C6687">
+        <v>362</v>
+      </c>
+      <c r="D6687">
+        <v>1878</v>
+      </c>
+      <c r="E6687">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6688" spans="1:5">
+      <c r="A6688">
+        <v>6686</v>
+      </c>
+      <c r="B6688">
+        <v>0</v>
+      </c>
+      <c r="C6688">
+        <v>363</v>
+      </c>
+      <c r="D6688">
+        <v>1878</v>
+      </c>
+      <c r="E6688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6689" spans="1:5">
+      <c r="A6689">
+        <v>6687</v>
+      </c>
+      <c r="B6689">
+        <v>0</v>
+      </c>
+      <c r="C6689">
+        <v>364</v>
+      </c>
+      <c r="D6689">
+        <v>1878</v>
+      </c>
+      <c r="E6689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6690" spans="1:5">
+      <c r="A6690">
+        <v>6688</v>
+      </c>
+      <c r="B6690">
+        <v>0</v>
+      </c>
+      <c r="C6690">
+        <v>365</v>
+      </c>
+      <c r="D6690">
+        <v>1878</v>
+      </c>
+      <c r="E6690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6691" spans="1:5">
+      <c r="A6691">
+        <v>6689</v>
+      </c>
+      <c r="B6691">
+        <v>0</v>
+      </c>
+      <c r="C6691">
+        <v>366</v>
+      </c>
+      <c r="D6691">
+        <v>1878</v>
+      </c>
+      <c r="E6691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6692" spans="1:5">
+      <c r="A6692">
+        <v>6690</v>
+      </c>
+      <c r="B6692">
+        <v>0</v>
+      </c>
+      <c r="C6692">
+        <v>367</v>
+      </c>
+      <c r="D6692">
+        <v>1878</v>
+      </c>
+      <c r="E6692">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6693" spans="1:5">
+      <c r="A6693">
+        <v>6691</v>
+      </c>
+      <c r="B6693">
+        <v>0</v>
+      </c>
+      <c r="C6693">
+        <v>368</v>
+      </c>
+      <c r="D6693">
+        <v>1878</v>
+      </c>
+      <c r="E6693">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6694" spans="1:5">
+      <c r="A6694">
+        <v>6692</v>
+      </c>
+      <c r="B6694">
+        <v>0</v>
+      </c>
+      <c r="C6694">
+        <v>369</v>
+      </c>
+      <c r="D6694">
+        <v>1878</v>
+      </c>
+      <c r="E6694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6695" spans="1:5">
+      <c r="A6695">
+        <v>6693</v>
+      </c>
+      <c r="B6695">
+        <v>0</v>
+      </c>
+      <c r="C6695">
+        <v>370</v>
+      </c>
+      <c r="D6695">
+        <v>1878</v>
+      </c>
+      <c r="E6695">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6696" spans="1:5">
+      <c r="A6696">
+        <v>6694</v>
+      </c>
+      <c r="B6696">
+        <v>0</v>
+      </c>
+      <c r="C6696">
+        <v>371</v>
+      </c>
+      <c r="D6696">
+        <v>1878</v>
+      </c>
+      <c r="E6696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6697" spans="1:5">
+      <c r="A6697">
+        <v>6695</v>
+      </c>
+      <c r="B6697">
+        <v>0</v>
+      </c>
+      <c r="C6697">
+        <v>372</v>
+      </c>
+      <c r="D6697">
+        <v>1878</v>
+      </c>
+      <c r="E6697">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6698" spans="1:5">
+      <c r="A6698">
+        <v>6696</v>
+      </c>
+      <c r="B6698">
+        <v>0</v>
+      </c>
+      <c r="C6698">
+        <v>373</v>
+      </c>
+      <c r="D6698">
+        <v>1878</v>
+      </c>
+      <c r="E6698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6699" spans="1:5">
+      <c r="A6699">
+        <v>6697</v>
+      </c>
+      <c r="B6699">
+        <v>0</v>
+      </c>
+      <c r="C6699">
+        <v>374</v>
+      </c>
+      <c r="D6699">
+        <v>1878</v>
+      </c>
+      <c r="E6699">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6700" spans="1:5">
+      <c r="A6700">
+        <v>6698</v>
+      </c>
+      <c r="B6700">
+        <v>0</v>
+      </c>
+      <c r="C6700">
+        <v>375</v>
+      </c>
+      <c r="D6700">
+        <v>1878</v>
+      </c>
+      <c r="E6700">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6701" spans="1:5">
+      <c r="A6701">
+        <v>6699</v>
+      </c>
+      <c r="B6701">
+        <v>0</v>
+      </c>
+      <c r="C6701">
+        <v>376</v>
+      </c>
+      <c r="D6701">
+        <v>1878</v>
+      </c>
+      <c r="E6701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6702" spans="1:5">
+      <c r="A6702">
+        <v>6700</v>
+      </c>
+      <c r="B6702">
+        <v>0</v>
+      </c>
+      <c r="C6702">
+        <v>377</v>
+      </c>
+      <c r="D6702">
+        <v>1878</v>
+      </c>
+      <c r="E6702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6703" spans="1:5">
+      <c r="A6703">
+        <v>6701</v>
+      </c>
+      <c r="B6703">
+        <v>0</v>
+      </c>
+      <c r="C6703">
+        <v>378</v>
+      </c>
+      <c r="D6703">
+        <v>1878</v>
+      </c>
+      <c r="E6703">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6704" spans="1:5">
+      <c r="A6704">
+        <v>6702</v>
+      </c>
+      <c r="B6704">
+        <v>0</v>
+      </c>
+      <c r="C6704">
+        <v>379</v>
+      </c>
+      <c r="D6704">
+        <v>1878</v>
+      </c>
+      <c r="E6704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6705" spans="1:5">
+      <c r="A6705">
+        <v>6703</v>
+      </c>
+      <c r="B6705">
+        <v>0</v>
+      </c>
+      <c r="C6705">
+        <v>380</v>
+      </c>
+      <c r="D6705">
+        <v>1878</v>
+      </c>
+      <c r="E6705">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6706" spans="1:5">
+      <c r="A6706">
+        <v>6704</v>
+      </c>
+      <c r="B6706">
+        <v>0</v>
+      </c>
+      <c r="C6706">
+        <v>381</v>
+      </c>
+      <c r="D6706">
+        <v>1878</v>
+      </c>
+      <c r="E6706">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6707" spans="1:5">
+      <c r="A6707">
+        <v>6705</v>
+      </c>
+      <c r="B6707">
+        <v>0</v>
+      </c>
+      <c r="C6707">
+        <v>382</v>
+      </c>
+      <c r="D6707">
+        <v>1878</v>
+      </c>
+      <c r="E6707">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6708" spans="1:5">
+      <c r="A6708">
+        <v>6706</v>
+      </c>
+      <c r="B6708">
+        <v>0</v>
+      </c>
+      <c r="C6708">
+        <v>383</v>
+      </c>
+      <c r="D6708">
+        <v>1878</v>
+      </c>
+      <c r="E6708">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6709" spans="1:5">
+      <c r="A6709">
+        <v>6707</v>
+      </c>
+      <c r="B6709">
+        <v>0</v>
+      </c>
+      <c r="C6709">
+        <v>384</v>
+      </c>
+      <c r="D6709">
+        <v>1878</v>
+      </c>
+      <c r="E6709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6710" spans="1:5">
+      <c r="A6710">
+        <v>6708</v>
+      </c>
+      <c r="B6710">
+        <v>0</v>
+      </c>
+      <c r="C6710">
+        <v>385</v>
+      </c>
+      <c r="D6710">
+        <v>1878</v>
+      </c>
+      <c r="E6710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6711" spans="1:5">
+      <c r="A6711">
+        <v>6709</v>
+      </c>
+      <c r="B6711">
+        <v>0</v>
+      </c>
+      <c r="C6711">
+        <v>386</v>
+      </c>
+      <c r="D6711">
+        <v>1878</v>
+      </c>
+      <c r="E6711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6712" spans="1:5">
+      <c r="A6712">
+        <v>6710</v>
+      </c>
+      <c r="B6712">
+        <v>0</v>
+      </c>
+      <c r="C6712">
+        <v>387</v>
+      </c>
+      <c r="D6712">
+        <v>1878</v>
+      </c>
+      <c r="E6712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6713" spans="1:5">
+      <c r="A6713">
+        <v>6711</v>
+      </c>
+      <c r="B6713">
+        <v>0</v>
+      </c>
+      <c r="C6713">
+        <v>388</v>
+      </c>
+      <c r="D6713">
+        <v>1878</v>
+      </c>
+      <c r="E6713">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6714" spans="1:5">
+      <c r="A6714">
+        <v>6712</v>
+      </c>
+      <c r="B6714">
+        <v>0</v>
+      </c>
+      <c r="C6714">
+        <v>389</v>
+      </c>
+      <c r="D6714">
+        <v>1878</v>
+      </c>
+      <c r="E6714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6715" spans="1:5">
+      <c r="A6715">
+        <v>6713</v>
+      </c>
+      <c r="B6715">
+        <v>0</v>
+      </c>
+      <c r="C6715">
+        <v>390</v>
+      </c>
+      <c r="D6715">
+        <v>1878</v>
+      </c>
+      <c r="E6715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6716" spans="1:5">
+      <c r="A6716">
+        <v>6714</v>
+      </c>
+      <c r="B6716">
+        <v>0</v>
+      </c>
+      <c r="C6716">
+        <v>391</v>
+      </c>
+      <c r="D6716">
+        <v>1878</v>
+      </c>
+      <c r="E6716">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6717" spans="1:5">
+      <c r="A6717">
+        <v>6715</v>
+      </c>
+      <c r="B6717">
+        <v>0</v>
+      </c>
+      <c r="C6717">
+        <v>392</v>
+      </c>
+      <c r="D6717">
+        <v>1878</v>
+      </c>
+      <c r="E6717">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6718" spans="1:5">
+      <c r="A6718">
+        <v>6716</v>
+      </c>
+      <c r="B6718">
+        <v>0</v>
+      </c>
+      <c r="C6718">
+        <v>393</v>
+      </c>
+      <c r="D6718">
+        <v>1878</v>
+      </c>
+      <c r="E6718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6719" spans="1:5">
+      <c r="A6719">
+        <v>6717</v>
+      </c>
+      <c r="B6719">
+        <v>0</v>
+      </c>
+      <c r="C6719">
+        <v>394</v>
+      </c>
+      <c r="D6719">
+        <v>1878</v>
+      </c>
+      <c r="E6719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6720" spans="1:5">
+      <c r="A6720">
+        <v>6718</v>
+      </c>
+      <c r="B6720">
+        <v>0</v>
+      </c>
+      <c r="C6720">
+        <v>395</v>
+      </c>
+      <c r="D6720">
+        <v>1878</v>
+      </c>
+      <c r="E6720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6721" spans="1:5">
+      <c r="A6721">
+        <v>6719</v>
+      </c>
+      <c r="B6721">
+        <v>0</v>
+      </c>
+      <c r="C6721">
+        <v>396</v>
+      </c>
+      <c r="D6721">
+        <v>1878</v>
+      </c>
+      <c r="E6721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6722" spans="1:5">
+      <c r="A6722">
+        <v>6720</v>
+      </c>
+      <c r="B6722">
+        <v>0</v>
+      </c>
+      <c r="C6722">
+        <v>397</v>
+      </c>
+      <c r="D6722">
+        <v>1878</v>
+      </c>
+      <c r="E6722">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6723" spans="1:5">
+      <c r="A6723">
+        <v>6721</v>
+      </c>
+      <c r="B6723">
+        <v>0</v>
+      </c>
+      <c r="C6723">
+        <v>398</v>
+      </c>
+      <c r="D6723">
+        <v>1878</v>
+      </c>
+      <c r="E6723">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6724" spans="1:5">
+      <c r="A6724">
+        <v>6722</v>
+      </c>
+      <c r="B6724">
+        <v>0</v>
+      </c>
+      <c r="C6724">
+        <v>399</v>
+      </c>
+      <c r="D6724">
+        <v>1878</v>
+      </c>
+      <c r="E6724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6725" spans="1:5">
+      <c r="A6725">
+        <v>6723</v>
+      </c>
+      <c r="B6725">
+        <v>0</v>
+      </c>
+      <c r="C6725">
+        <v>400</v>
+      </c>
+      <c r="D6725">
+        <v>1878</v>
+      </c>
+      <c r="E6725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6726" spans="1:5">
+      <c r="A6726">
+        <v>6724</v>
+      </c>
+      <c r="B6726">
+        <v>0</v>
+      </c>
+      <c r="C6726">
+        <v>401</v>
+      </c>
+      <c r="D6726">
+        <v>1878</v>
+      </c>
+      <c r="E6726">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6727" spans="1:5">
+      <c r="A6727">
+        <v>6725</v>
+      </c>
+      <c r="B6727">
+        <v>0</v>
+      </c>
+      <c r="C6727">
+        <v>402</v>
+      </c>
+      <c r="D6727">
+        <v>1878</v>
+      </c>
+      <c r="E6727">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6728" spans="1:5">
+      <c r="A6728">
+        <v>6726</v>
+      </c>
+      <c r="B6728">
+        <v>0</v>
+      </c>
+      <c r="C6728">
+        <v>403</v>
+      </c>
+      <c r="D6728">
+        <v>1878</v>
+      </c>
+      <c r="E6728">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6729" spans="1:5">
+      <c r="A6729">
+        <v>6727</v>
+      </c>
+      <c r="B6729">
+        <v>0</v>
+      </c>
+      <c r="C6729">
+        <v>404</v>
+      </c>
+      <c r="D6729">
+        <v>1878</v>
+      </c>
+      <c r="E6729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6730" spans="1:5">
+      <c r="A6730">
+        <v>6728</v>
+      </c>
+      <c r="B6730">
+        <v>0</v>
+      </c>
+      <c r="C6730">
+        <v>405</v>
+      </c>
+      <c r="D6730">
+        <v>1878</v>
+      </c>
+      <c r="E6730">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6731" spans="1:5">
+      <c r="A6731">
+        <v>6729</v>
+      </c>
+      <c r="B6731">
+        <v>0</v>
+      </c>
+      <c r="C6731">
+        <v>406</v>
+      </c>
+      <c r="D6731">
+        <v>1878</v>
+      </c>
+      <c r="E6731">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6732" spans="1:5">
+      <c r="A6732">
+        <v>6730</v>
+      </c>
+      <c r="B6732">
+        <v>0</v>
+      </c>
+      <c r="C6732">
+        <v>407</v>
+      </c>
+      <c r="D6732">
+        <v>1878</v>
+      </c>
+      <c r="E6732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6733" spans="1:5">
+      <c r="A6733">
+        <v>6731</v>
+      </c>
+      <c r="B6733">
+        <v>0</v>
+      </c>
+      <c r="C6733">
+        <v>408</v>
+      </c>
+      <c r="D6733">
+        <v>1878</v>
+      </c>
+      <c r="E6733">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6734" spans="1:5">
+      <c r="A6734">
+        <v>6732</v>
+      </c>
+      <c r="B6734">
+        <v>0</v>
+      </c>
+      <c r="C6734">
+        <v>409</v>
+      </c>
+      <c r="D6734">
+        <v>1878</v>
+      </c>
+      <c r="E6734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6735" spans="1:5">
+      <c r="A6735">
+        <v>6733</v>
+      </c>
+      <c r="B6735">
+        <v>0</v>
+      </c>
+      <c r="C6735">
+        <v>410</v>
+      </c>
+      <c r="D6735">
+        <v>1878</v>
+      </c>
+      <c r="E6735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6736" spans="1:5">
+      <c r="A6736">
+        <v>6734</v>
+      </c>
+      <c r="B6736">
+        <v>0</v>
+      </c>
+      <c r="C6736">
+        <v>411</v>
+      </c>
+      <c r="D6736">
+        <v>1878</v>
+      </c>
+      <c r="E6736">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6737" spans="1:5">
+      <c r="A6737">
+        <v>6735</v>
+      </c>
+      <c r="B6737">
+        <v>0</v>
+      </c>
+      <c r="C6737">
+        <v>412</v>
+      </c>
+      <c r="D6737">
+        <v>1878</v>
+      </c>
+      <c r="E6737">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6738" spans="1:5">
+      <c r="A6738">
+        <v>6736</v>
+      </c>
+      <c r="B6738">
+        <v>0</v>
+      </c>
+      <c r="C6738">
+        <v>413</v>
+      </c>
+      <c r="D6738">
+        <v>1878</v>
+      </c>
+      <c r="E6738">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6739" spans="1:5">
+      <c r="A6739">
+        <v>6737</v>
+      </c>
+      <c r="B6739">
+        <v>0</v>
+      </c>
+      <c r="C6739">
+        <v>414</v>
+      </c>
+      <c r="D6739">
+        <v>1878</v>
+      </c>
+      <c r="E6739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6740" spans="1:5">
+      <c r="A6740">
+        <v>6738</v>
+      </c>
+      <c r="B6740">
+        <v>0</v>
+      </c>
+      <c r="C6740">
+        <v>415</v>
+      </c>
+      <c r="D6740">
+        <v>1878</v>
+      </c>
+      <c r="E6740">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6741" spans="1:5">
+      <c r="A6741">
+        <v>6739</v>
+      </c>
+      <c r="B6741">
+        <v>0</v>
+      </c>
+      <c r="C6741">
+        <v>416</v>
+      </c>
+      <c r="D6741">
+        <v>1878</v>
+      </c>
+      <c r="E6741">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6742" spans="1:5">
+      <c r="A6742">
+        <v>6740</v>
+      </c>
+      <c r="B6742">
+        <v>0</v>
+      </c>
+      <c r="C6742">
+        <v>417</v>
+      </c>
+      <c r="D6742">
+        <v>1878</v>
+      </c>
+      <c r="E6742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6743" spans="1:5">
+      <c r="A6743">
+        <v>6741</v>
+      </c>
+      <c r="B6743">
+        <v>0</v>
+      </c>
+      <c r="C6743">
+        <v>418</v>
+      </c>
+      <c r="D6743">
+        <v>1878</v>
+      </c>
+      <c r="E6743">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6744" spans="1:5">
+      <c r="A6744">
+        <v>6742</v>
+      </c>
+      <c r="B6744">
+        <v>0</v>
+      </c>
+      <c r="C6744">
+        <v>419</v>
+      </c>
+      <c r="D6744">
+        <v>1878</v>
+      </c>
+      <c r="E6744">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6745" spans="1:5">
+      <c r="A6745">
+        <v>6743</v>
+      </c>
+      <c r="B6745">
+        <v>0</v>
+      </c>
+      <c r="C6745">
+        <v>420</v>
+      </c>
+      <c r="D6745">
+        <v>1878</v>
+      </c>
+      <c r="E6745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6746" spans="1:5">
+      <c r="A6746">
+        <v>6744</v>
+      </c>
+      <c r="B6746">
+        <v>0</v>
+      </c>
+      <c r="C6746">
+        <v>421</v>
+      </c>
+      <c r="D6746">
+        <v>1878</v>
+      </c>
+      <c r="E6746">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6747" spans="1:5">
+      <c r="A6747">
+        <v>6745</v>
+      </c>
+      <c r="B6747">
+        <v>0</v>
+      </c>
+      <c r="C6747">
+        <v>422</v>
+      </c>
+      <c r="D6747">
+        <v>1878</v>
+      </c>
+      <c r="E6747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6748" spans="1:5">
+      <c r="A6748">
+        <v>6746</v>
+      </c>
+      <c r="B6748">
+        <v>0</v>
+      </c>
+      <c r="C6748">
+        <v>423</v>
+      </c>
+      <c r="D6748">
+        <v>1878</v>
+      </c>
+      <c r="E6748">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6749" spans="1:5">
+      <c r="A6749">
+        <v>6747</v>
+      </c>
+      <c r="B6749">
+        <v>0</v>
+      </c>
+      <c r="C6749">
+        <v>424</v>
+      </c>
+      <c r="D6749">
+        <v>1878</v>
+      </c>
+      <c r="E6749">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6750" spans="1:5">
+      <c r="A6750">
+        <v>6748</v>
+      </c>
+      <c r="B6750">
+        <v>0</v>
+      </c>
+      <c r="C6750">
+        <v>425</v>
+      </c>
+      <c r="D6750">
+        <v>1878</v>
+      </c>
+      <c r="E6750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6751" spans="1:5">
+      <c r="A6751">
+        <v>6749</v>
+      </c>
+      <c r="B6751">
+        <v>0</v>
+      </c>
+      <c r="C6751">
+        <v>426</v>
+      </c>
+      <c r="D6751">
+        <v>1878</v>
+      </c>
+      <c r="E6751">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6752" spans="1:5">
+      <c r="A6752">
+        <v>6750</v>
+      </c>
+      <c r="B6752">
+        <v>0</v>
+      </c>
+      <c r="C6752">
+        <v>427</v>
+      </c>
+      <c r="D6752">
+        <v>1878</v>
+      </c>
+      <c r="E6752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6753" spans="1:5">
+      <c r="A6753">
+        <v>6751</v>
+      </c>
+      <c r="B6753">
+        <v>0</v>
+      </c>
+      <c r="C6753">
+        <v>428</v>
+      </c>
+      <c r="D6753">
+        <v>1878</v>
+      </c>
+      <c r="E6753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6754" spans="1:5">
+      <c r="A6754">
+        <v>6752</v>
+      </c>
+      <c r="B6754">
+        <v>0</v>
+      </c>
+      <c r="C6754">
+        <v>429</v>
+      </c>
+      <c r="D6754">
+        <v>1878</v>
+      </c>
+      <c r="E6754">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6755" spans="1:5">
+      <c r="A6755">
+        <v>6753</v>
+      </c>
+      <c r="B6755">
+        <v>0</v>
+      </c>
+      <c r="C6755">
+        <v>430</v>
+      </c>
+      <c r="D6755">
+        <v>1878</v>
+      </c>
+      <c r="E6755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6756" spans="1:5">
+      <c r="A6756">
+        <v>6754</v>
+      </c>
+      <c r="B6756">
+        <v>0</v>
+      </c>
+      <c r="C6756">
+        <v>431</v>
+      </c>
+      <c r="D6756">
+        <v>1878</v>
+      </c>
+      <c r="E6756">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6757" spans="1:5">
+      <c r="A6757">
+        <v>6755</v>
+      </c>
+      <c r="B6757">
+        <v>0</v>
+      </c>
+      <c r="C6757">
+        <v>432</v>
+      </c>
+      <c r="D6757">
+        <v>1878</v>
+      </c>
+      <c r="E6757">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6758" spans="1:5">
+      <c r="A6758">
+        <v>6756</v>
+      </c>
+      <c r="B6758">
+        <v>0</v>
+      </c>
+      <c r="C6758">
+        <v>433</v>
+      </c>
+      <c r="D6758">
+        <v>1878</v>
+      </c>
+      <c r="E6758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6759" spans="1:5">
+      <c r="A6759">
+        <v>6757</v>
+      </c>
+      <c r="B6759">
+        <v>0</v>
+      </c>
+      <c r="C6759">
+        <v>434</v>
+      </c>
+      <c r="D6759">
+        <v>1878</v>
+      </c>
+      <c r="E6759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6760" spans="1:5">
+      <c r="A6760">
+        <v>6758</v>
+      </c>
+      <c r="B6760">
+        <v>0</v>
+      </c>
+      <c r="C6760">
+        <v>435</v>
+      </c>
+      <c r="D6760">
+        <v>1878</v>
+      </c>
+      <c r="E6760">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6761" spans="1:5">
+      <c r="A6761">
+        <v>6759</v>
+      </c>
+      <c r="B6761">
+        <v>0</v>
+      </c>
+      <c r="C6761">
+        <v>436</v>
+      </c>
+      <c r="D6761">
+        <v>1878</v>
+      </c>
+      <c r="E6761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6762" spans="1:5">
+      <c r="A6762">
+        <v>6760</v>
+      </c>
+      <c r="B6762">
+        <v>0</v>
+      </c>
+      <c r="C6762">
+        <v>437</v>
+      </c>
+      <c r="D6762">
+        <v>1878</v>
+      </c>
+      <c r="E6762">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6763" spans="1:5">
+      <c r="A6763">
+        <v>6761</v>
+      </c>
+      <c r="B6763">
+        <v>0</v>
+      </c>
+      <c r="C6763">
+        <v>438</v>
+      </c>
+      <c r="D6763">
+        <v>1878</v>
+      </c>
+      <c r="E6763">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6764" spans="1:5">
+      <c r="A6764">
+        <v>6762</v>
+      </c>
+      <c r="B6764">
+        <v>0</v>
+      </c>
+      <c r="C6764">
+        <v>439</v>
+      </c>
+      <c r="D6764">
+        <v>1878</v>
+      </c>
+      <c r="E6764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6765" spans="1:5">
+      <c r="A6765">
+        <v>6763</v>
+      </c>
+      <c r="B6765">
+        <v>0</v>
+      </c>
+      <c r="C6765">
+        <v>440</v>
+      </c>
+      <c r="D6765">
+        <v>1878</v>
+      </c>
+      <c r="E6765">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6766" spans="1:5">
+      <c r="A6766">
+        <v>6764</v>
+      </c>
+      <c r="B6766">
+        <v>0</v>
+      </c>
+      <c r="C6766">
+        <v>441</v>
+      </c>
+      <c r="D6766">
+        <v>1878</v>
+      </c>
+      <c r="E6766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6767" spans="1:5">
+      <c r="A6767">
+        <v>6765</v>
+      </c>
+      <c r="B6767">
+        <v>0</v>
+      </c>
+      <c r="C6767">
+        <v>442</v>
+      </c>
+      <c r="D6767">
+        <v>1878</v>
+      </c>
+      <c r="E6767">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6768" spans="1:5">
+      <c r="A6768">
+        <v>6766</v>
+      </c>
+      <c r="B6768">
+        <v>0</v>
+      </c>
+      <c r="C6768">
+        <v>443</v>
+      </c>
+      <c r="D6768">
+        <v>1878</v>
+      </c>
+      <c r="E6768">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6769" spans="1:5">
+      <c r="A6769">
+        <v>6767</v>
+      </c>
+      <c r="B6769">
+        <v>0</v>
+      </c>
+      <c r="C6769">
+        <v>444</v>
+      </c>
+      <c r="D6769">
+        <v>1878</v>
+      </c>
+      <c r="E6769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6770" spans="1:5">
+      <c r="A6770">
+        <v>6768</v>
+      </c>
+      <c r="B6770">
+        <v>0</v>
+      </c>
+      <c r="C6770">
+        <v>445</v>
+      </c>
+      <c r="D6770">
+        <v>1878</v>
+      </c>
+      <c r="E6770">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6771" spans="1:5">
+      <c r="A6771">
+        <v>6769</v>
+      </c>
+      <c r="B6771">
+        <v>0</v>
+      </c>
+      <c r="C6771">
+        <v>446</v>
+      </c>
+      <c r="D6771">
+        <v>1878</v>
+      </c>
+      <c r="E6771">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6772" spans="1:5">
+      <c r="A6772">
+        <v>6770</v>
+      </c>
+      <c r="B6772">
+        <v>0</v>
+      </c>
+      <c r="C6772">
+        <v>447</v>
+      </c>
+      <c r="D6772">
+        <v>1878</v>
+      </c>
+      <c r="E6772">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6773" spans="1:5">
+      <c r="A6773">
+        <v>6771</v>
+      </c>
+      <c r="B6773">
+        <v>0</v>
+      </c>
+      <c r="C6773">
+        <v>448</v>
+      </c>
+      <c r="D6773">
+        <v>1878</v>
+      </c>
+      <c r="E6773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6774" spans="1:5">
+      <c r="A6774">
+        <v>6772</v>
+      </c>
+      <c r="B6774">
+        <v>0</v>
+      </c>
+      <c r="C6774">
+        <v>449</v>
+      </c>
+      <c r="D6774">
+        <v>1878</v>
+      </c>
+      <c r="E6774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6775" spans="1:5">
+      <c r="A6775">
+        <v>6773</v>
+      </c>
+      <c r="B6775">
+        <v>0</v>
+      </c>
+      <c r="C6775">
+        <v>450</v>
+      </c>
+      <c r="D6775">
+        <v>1878</v>
+      </c>
+      <c r="E6775">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6776" spans="1:5">
+      <c r="A6776">
+        <v>6774</v>
+      </c>
+      <c r="B6776">
+        <v>0</v>
+      </c>
+      <c r="C6776">
+        <v>451</v>
+      </c>
+      <c r="D6776">
+        <v>1878</v>
+      </c>
+      <c r="E6776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6777" spans="1:5">
+      <c r="A6777">
+        <v>6775</v>
+      </c>
+      <c r="B6777">
+        <v>0</v>
+      </c>
+      <c r="C6777">
+        <v>452</v>
+      </c>
+      <c r="D6777">
+        <v>1878</v>
+      </c>
+      <c r="E6777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6778" spans="1:5">
+      <c r="A6778">
+        <v>6776</v>
+      </c>
+      <c r="B6778">
+        <v>0</v>
+      </c>
+      <c r="C6778">
+        <v>453</v>
+      </c>
+      <c r="D6778">
+        <v>1878</v>
+      </c>
+      <c r="E6778">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6779" spans="1:5">
+      <c r="A6779">
+        <v>6777</v>
+      </c>
+      <c r="B6779">
+        <v>0</v>
+      </c>
+      <c r="C6779">
+        <v>454</v>
+      </c>
+      <c r="D6779">
+        <v>1878</v>
+      </c>
+      <c r="E6779">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6780" spans="1:5">
+      <c r="A6780">
+        <v>6778</v>
+      </c>
+      <c r="B6780">
+        <v>0</v>
+      </c>
+      <c r="C6780">
+        <v>455</v>
+      </c>
+      <c r="D6780">
+        <v>1878</v>
+      </c>
+      <c r="E6780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6781" spans="1:5">
+      <c r="A6781">
+        <v>6779</v>
+      </c>
+      <c r="B6781">
+        <v>0</v>
+      </c>
+      <c r="C6781">
+        <v>456</v>
+      </c>
+      <c r="D6781">
+        <v>1878</v>
+      </c>
+      <c r="E6781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6782" spans="1:5">
+      <c r="A6782">
+        <v>6780</v>
+      </c>
+      <c r="B6782">
+        <v>0</v>
+      </c>
+      <c r="C6782">
+        <v>457</v>
+      </c>
+      <c r="D6782">
+        <v>1878</v>
+      </c>
+      <c r="E6782">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6783" spans="1:5">
+      <c r="A6783">
+        <v>6781</v>
+      </c>
+      <c r="B6783">
+        <v>0</v>
+      </c>
+      <c r="C6783">
+        <v>458</v>
+      </c>
+      <c r="D6783">
+        <v>1878</v>
+      </c>
+      <c r="E6783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6784" spans="1:5">
+      <c r="A6784">
+        <v>6782</v>
+      </c>
+      <c r="B6784">
+        <v>0</v>
+      </c>
+      <c r="C6784">
+        <v>459</v>
+      </c>
+      <c r="D6784">
+        <v>1878</v>
+      </c>
+      <c r="E6784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6785" spans="1:5">
+      <c r="A6785">
+        <v>6783</v>
+      </c>
+      <c r="B6785">
+        <v>0</v>
+      </c>
+      <c r="C6785">
+        <v>460</v>
+      </c>
+      <c r="D6785">
+        <v>1878</v>
+      </c>
+      <c r="E6785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6786" spans="1:5">
+      <c r="A6786">
+        <v>6784</v>
+      </c>
+      <c r="B6786">
+        <v>0</v>
+      </c>
+      <c r="C6786">
+        <v>461</v>
+      </c>
+      <c r="D6786">
+        <v>1878</v>
+      </c>
+      <c r="E6786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6787" spans="1:5">
+      <c r="A6787">
+        <v>6785</v>
+      </c>
+      <c r="B6787">
+        <v>0</v>
+      </c>
+      <c r="C6787">
+        <v>462</v>
+      </c>
+      <c r="D6787">
+        <v>1878</v>
+      </c>
+      <c r="E6787">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6788" spans="1:5">
+      <c r="A6788">
+        <v>6786</v>
+      </c>
+      <c r="B6788">
+        <v>0</v>
+      </c>
+      <c r="C6788">
+        <v>463</v>
+      </c>
+      <c r="D6788">
+        <v>1878</v>
+      </c>
+      <c r="E6788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6789" spans="1:5">
+      <c r="A6789">
+        <v>6787</v>
+      </c>
+      <c r="B6789">
+        <v>0</v>
+      </c>
+      <c r="C6789">
+        <v>464</v>
+      </c>
+      <c r="D6789">
+        <v>1878</v>
+      </c>
+      <c r="E6789">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6790" spans="1:5">
+      <c r="A6790">
+        <v>6788</v>
+      </c>
+      <c r="B6790">
+        <v>0</v>
+      </c>
+      <c r="C6790">
+        <v>465</v>
+      </c>
+      <c r="D6790">
+        <v>1878</v>
+      </c>
+      <c r="E6790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6791" spans="1:5">
+      <c r="A6791">
+        <v>6789</v>
+      </c>
+      <c r="B6791">
+        <v>0</v>
+      </c>
+      <c r="C6791">
+        <v>466</v>
+      </c>
+      <c r="D6791">
+        <v>1878</v>
+      </c>
+      <c r="E6791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6792" spans="1:5">
+      <c r="A6792">
+        <v>6790</v>
+      </c>
+      <c r="B6792">
+        <v>0</v>
+      </c>
+      <c r="C6792">
+        <v>467</v>
+      </c>
+      <c r="D6792">
+        <v>1878</v>
+      </c>
+      <c r="E6792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6793" spans="1:5">
+      <c r="A6793">
+        <v>6791</v>
+      </c>
+      <c r="B6793">
+        <v>0</v>
+      </c>
+      <c r="C6793">
+        <v>468</v>
+      </c>
+      <c r="D6793">
+        <v>1878</v>
+      </c>
+      <c r="E6793">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6794" spans="1:5">
+      <c r="A6794">
+        <v>6792</v>
+      </c>
+      <c r="B6794">
+        <v>0</v>
+      </c>
+      <c r="C6794">
+        <v>469</v>
+      </c>
+      <c r="D6794">
+        <v>1878</v>
+      </c>
+      <c r="E6794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6795" spans="1:5">
+      <c r="A6795">
+        <v>6793</v>
+      </c>
+      <c r="B6795">
+        <v>0</v>
+      </c>
+      <c r="C6795">
+        <v>470</v>
+      </c>
+      <c r="D6795">
+        <v>1878</v>
+      </c>
+      <c r="E6795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6796" spans="1:5">
+      <c r="A6796">
+        <v>6794</v>
+      </c>
+      <c r="B6796">
+        <v>0</v>
+      </c>
+      <c r="C6796">
+        <v>471</v>
+      </c>
+      <c r="D6796">
+        <v>1878</v>
+      </c>
+      <c r="E6796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6797" spans="1:5">
+      <c r="A6797">
+        <v>6795</v>
+      </c>
+      <c r="B6797">
+        <v>0</v>
+      </c>
+      <c r="C6797">
+        <v>472</v>
+      </c>
+      <c r="D6797">
+        <v>1878</v>
+      </c>
+      <c r="E6797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6798" spans="1:5">
+      <c r="A6798">
+        <v>6796</v>
+      </c>
+      <c r="B6798">
+        <v>0</v>
+      </c>
+      <c r="C6798">
+        <v>473</v>
+      </c>
+      <c r="D6798">
+        <v>1878</v>
+      </c>
+      <c r="E6798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6799" spans="1:5">
+      <c r="A6799">
+        <v>6797</v>
+      </c>
+      <c r="B6799">
+        <v>0</v>
+      </c>
+      <c r="C6799">
+        <v>474</v>
+      </c>
+      <c r="D6799">
+        <v>1878</v>
+      </c>
+      <c r="E6799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6800" spans="1:5">
+      <c r="A6800">
+        <v>6798</v>
+      </c>
+      <c r="B6800">
+        <v>0</v>
+      </c>
+      <c r="C6800">
+        <v>475</v>
+      </c>
+      <c r="D6800">
+        <v>1878</v>
+      </c>
+      <c r="E6800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6801" spans="1:5">
+      <c r="A6801">
+        <v>6799</v>
+      </c>
+      <c r="B6801">
+        <v>0</v>
+      </c>
+      <c r="C6801">
+        <v>476</v>
+      </c>
+      <c r="D6801">
+        <v>1878</v>
+      </c>
+      <c r="E6801">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6802" spans="1:5">
+      <c r="A6802">
+        <v>6800</v>
+      </c>
+      <c r="B6802">
+        <v>0</v>
+      </c>
+      <c r="C6802">
+        <v>477</v>
+      </c>
+      <c r="D6802">
+        <v>1878</v>
+      </c>
+      <c r="E6802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6803" spans="1:5">
+      <c r="A6803">
+        <v>6801</v>
+      </c>
+      <c r="B6803">
+        <v>0</v>
+      </c>
+      <c r="C6803">
+        <v>478</v>
+      </c>
+      <c r="D6803">
+        <v>1878</v>
+      </c>
+      <c r="E6803">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6804" spans="1:5">
+      <c r="A6804">
+        <v>6802</v>
+      </c>
+      <c r="B6804">
+        <v>0</v>
+      </c>
+      <c r="C6804">
+        <v>479</v>
+      </c>
+      <c r="D6804">
+        <v>1878</v>
+      </c>
+      <c r="E6804">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6805" spans="1:5">
+      <c r="A6805">
+        <v>6803</v>
+      </c>
+      <c r="B6805">
+        <v>0</v>
+      </c>
+      <c r="C6805">
+        <v>480</v>
+      </c>
+      <c r="D6805">
+        <v>1878</v>
+      </c>
+      <c r="E6805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6806" spans="1:5">
+      <c r="A6806">
+        <v>6804</v>
+      </c>
+      <c r="B6806">
+        <v>0</v>
+      </c>
+      <c r="C6806">
+        <v>481</v>
+      </c>
+      <c r="D6806">
+        <v>1878</v>
+      </c>
+      <c r="E6806">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6807" spans="1:5">
+      <c r="A6807">
+        <v>6805</v>
+      </c>
+      <c r="B6807">
+        <v>0</v>
+      </c>
+      <c r="C6807">
+        <v>482</v>
+      </c>
+      <c r="D6807">
+        <v>1878</v>
+      </c>
+      <c r="E6807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6808" spans="1:5">
+      <c r="A6808">
+        <v>6806</v>
+      </c>
+      <c r="B6808">
+        <v>0</v>
+      </c>
+      <c r="C6808">
+        <v>483</v>
+      </c>
+      <c r="D6808">
+        <v>1878</v>
+      </c>
+      <c r="E6808">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6809" spans="1:5">
+      <c r="A6809">
+        <v>6807</v>
+      </c>
+      <c r="B6809">
+        <v>0</v>
+      </c>
+      <c r="C6809">
+        <v>484</v>
+      </c>
+      <c r="D6809">
+        <v>1878</v>
+      </c>
+      <c r="E6809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6810" spans="1:5">
+      <c r="A6810">
+        <v>6808</v>
+      </c>
+      <c r="B6810">
+        <v>0</v>
+      </c>
+      <c r="C6810">
+        <v>485</v>
+      </c>
+      <c r="D6810">
+        <v>1878</v>
+      </c>
+      <c r="E6810">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6811" spans="1:5">
+      <c r="A6811">
+        <v>6809</v>
+      </c>
+      <c r="B6811">
+        <v>0</v>
+      </c>
+      <c r="C6811">
+        <v>486</v>
+      </c>
+      <c r="D6811">
+        <v>1878</v>
+      </c>
+      <c r="E6811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6812" spans="1:5">
+      <c r="A6812">
+        <v>6810</v>
+      </c>
+      <c r="B6812">
+        <v>0</v>
+      </c>
+      <c r="C6812">
+        <v>487</v>
+      </c>
+      <c r="D6812">
+        <v>1878</v>
+      </c>
+      <c r="E6812">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6813" spans="1:5">
+      <c r="A6813">
+        <v>6811</v>
+      </c>
+      <c r="B6813">
+        <v>0</v>
+      </c>
+      <c r="C6813">
+        <v>488</v>
+      </c>
+      <c r="D6813">
+        <v>1878</v>
+      </c>
+      <c r="E6813">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6814" spans="1:5">
+      <c r="A6814">
+        <v>6812</v>
+      </c>
+      <c r="B6814">
+        <v>0</v>
+      </c>
+      <c r="C6814">
+        <v>489</v>
+      </c>
+      <c r="D6814">
+        <v>1878</v>
+      </c>
+      <c r="E6814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6815" spans="1:5">
+      <c r="A6815">
+        <v>6813</v>
+      </c>
+      <c r="B6815">
+        <v>0</v>
+      </c>
+      <c r="C6815">
+        <v>490</v>
+      </c>
+      <c r="D6815">
+        <v>1878</v>
+      </c>
+      <c r="E6815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6816" spans="1:5">
+      <c r="A6816">
+        <v>6814</v>
+      </c>
+      <c r="B6816">
+        <v>0</v>
+      </c>
+      <c r="C6816">
+        <v>491</v>
+      </c>
+      <c r="D6816">
+        <v>1878</v>
+      </c>
+      <c r="E6816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6817" spans="1:5">
+      <c r="A6817">
+        <v>6815</v>
+      </c>
+      <c r="B6817">
+        <v>0</v>
+      </c>
+      <c r="C6817">
+        <v>492</v>
+      </c>
+      <c r="D6817">
+        <v>1878</v>
+      </c>
+      <c r="E6817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6818" spans="1:5">
+      <c r="A6818">
+        <v>6816</v>
+      </c>
+      <c r="B6818">
+        <v>0</v>
+      </c>
+      <c r="C6818">
+        <v>493</v>
+      </c>
+      <c r="D6818">
+        <v>1878</v>
+      </c>
+      <c r="E6818">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6819" spans="1:5">
+      <c r="A6819">
+        <v>6817</v>
+      </c>
+      <c r="B6819">
+        <v>0</v>
+      </c>
+      <c r="C6819">
+        <v>494</v>
+      </c>
+      <c r="D6819">
+        <v>1878</v>
+      </c>
+      <c r="E6819">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6820" spans="1:5">
+      <c r="A6820">
+        <v>6818</v>
+      </c>
+      <c r="B6820">
+        <v>0</v>
+      </c>
+      <c r="C6820">
+        <v>495</v>
+      </c>
+      <c r="D6820">
+        <v>1878</v>
+      </c>
+      <c r="E6820">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6821" spans="1:5">
+      <c r="A6821">
+        <v>6819</v>
+      </c>
+      <c r="B6821">
+        <v>0</v>
+      </c>
+      <c r="C6821">
+        <v>496</v>
+      </c>
+      <c r="D6821">
+        <v>1878</v>
+      </c>
+      <c r="E6821">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6822" spans="1:5">
+      <c r="A6822">
+        <v>6820</v>
+      </c>
+      <c r="B6822">
+        <v>0</v>
+      </c>
+      <c r="C6822">
+        <v>497</v>
+      </c>
+      <c r="D6822">
+        <v>1878</v>
+      </c>
+      <c r="E6822">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6823" spans="1:5">
+      <c r="A6823">
+        <v>6821</v>
+      </c>
+      <c r="B6823">
+        <v>0</v>
+      </c>
+      <c r="C6823">
+        <v>498</v>
+      </c>
+      <c r="D6823">
+        <v>1878</v>
+      </c>
+      <c r="E6823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6824" spans="1:5">
+      <c r="A6824">
+        <v>6822</v>
+      </c>
+      <c r="B6824">
+        <v>0</v>
+      </c>
+      <c r="C6824">
+        <v>499</v>
+      </c>
+      <c r="D6824">
+        <v>1878</v>
+      </c>
+      <c r="E6824">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6825" spans="1:5">
+      <c r="A6825">
+        <v>6823</v>
+      </c>
+      <c r="B6825">
+        <v>0</v>
+      </c>
+      <c r="C6825">
+        <v>500</v>
+      </c>
+      <c r="D6825">
+        <v>1878</v>
+      </c>
+      <c r="E6825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6826" spans="1:5">
+      <c r="A6826">
+        <v>6824</v>
+      </c>
+      <c r="B6826">
+        <v>0</v>
+      </c>
+      <c r="C6826">
+        <v>501</v>
+      </c>
+      <c r="D6826">
+        <v>1878</v>
+      </c>
+      <c r="E6826">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
